--- a/Paul Kamau - Task sheet.xlsx
+++ b/Paul Kamau - Task sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>Task</t>
   </si>
@@ -490,6 +490,34 @@
   </si>
   <si>
     <t>PM: Meg</t>
+  </si>
+  <si>
+    <t>GBM PDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Page </t>
+  </si>
+  <si>
+    <t>Activity page</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/online_education/solid_tumor/2014/gbm2014_pds.aspx</t>
+  </si>
+  <si>
+    <t>Hadjipanayis - a3f00554-5f5c-e280-ec49-546e3f630a0e
+Ahluwalia - d42f09a6-5ef3-7398-7682-546e40591303
+Ahluwalia 2 - 8eb204d1-3ba0-10c8-1b0e-546e457362b5</t>
+  </si>
+  <si>
+    <t>Hadjipanayis - http://www.primeoncology.org/online_education/solid_tumor/2014/gbm2014_pds/glioblastoma/1-e-hadjipanayis.aspx
+Ahluwalia 1 - http://www.primeoncology.org/online_education/solid_tumor/2014/gbm2014_pds/glioblastoma/ahluwalia.aspx
+Ahluwalia-2 - http://www.primeoncology.org/online_education/solid_tumor/2014/gbm2014_pds/glioblastoma/ahluwalia-2.aspx</t>
+  </si>
+  <si>
+    <t>S3 Assett Location</t>
+  </si>
+  <si>
+    <t>http://primepresentations.s3.amazonaws.com/2014/gbm</t>
   </si>
 </sst>
 </file>
@@ -690,7 +718,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -816,6 +844,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2557,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -3247,11 +3278,11 @@
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="3"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
@@ -3289,9 +3320,59 @@
         <v>94</v>
       </c>
     </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+    </row>
+    <row r="108" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>41963</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="D110" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A106:E106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -3312,17 +3393,18 @@
     <hyperlink ref="E99" r:id="rId16"/>
     <hyperlink ref="E103" r:id="rId17"/>
     <hyperlink ref="E105" r:id="rId18"/>
+    <hyperlink ref="E111" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId19"/>
-  <drawing r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <drawing r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId22" name="Check Box 1">
+            <control shapeId="1025" r:id="rId23" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3344,7 +3426,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId23" name="Check Box 5">
+            <control shapeId="1029" r:id="rId24" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3366,7 +3448,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId24" name="Check Box 6">
+            <control shapeId="1030" r:id="rId25" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3388,7 +3470,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId25" name="Check Box 8">
+            <control shapeId="1032" r:id="rId26" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3410,7 +3492,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId26" name="Check Box 13">
+            <control shapeId="1037" r:id="rId27" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3432,7 +3514,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId27" name="Check Box 15">
+            <control shapeId="1039" r:id="rId28" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3454,7 +3536,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId28" name="Check Box 17">
+            <control shapeId="1041" r:id="rId29" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3476,7 +3558,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId29" name="Check Box 18">
+            <control shapeId="1042" r:id="rId30" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3498,7 +3580,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId30" name="Check Box 19">
+            <control shapeId="1043" r:id="rId31" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3520,7 +3602,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId31" name="Check Box 20">
+            <control shapeId="1044" r:id="rId32" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3542,7 +3624,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId32" name="Check Box 24">
+            <control shapeId="1048" r:id="rId33" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3564,7 +3646,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId33" name="Check Box 26">
+            <control shapeId="1050" r:id="rId34" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3586,7 +3668,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId34" name="Check Box 31">
+            <control shapeId="1055" r:id="rId35" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3608,7 +3690,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId35" name="Check Box 32">
+            <control shapeId="1056" r:id="rId36" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3630,7 +3712,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId36" name="Check Box 33">
+            <control shapeId="1057" r:id="rId37" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3652,7 +3734,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId37" name="Check Box 41">
+            <control shapeId="1065" r:id="rId38" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3674,7 +3756,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId38" name="Check Box 42">
+            <control shapeId="1066" r:id="rId39" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3696,7 +3778,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId39" name="Check Box 43">
+            <control shapeId="1067" r:id="rId40" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3718,7 +3800,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId40" name="Check Box 44">
+            <control shapeId="1068" r:id="rId41" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3740,7 +3822,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId41" name="Check Box 48">
+            <control shapeId="1072" r:id="rId42" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3762,7 +3844,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId42" name="Check Box 50">
+            <control shapeId="1074" r:id="rId43" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3784,7 +3866,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId43" name="Check Box 51">
+            <control shapeId="1075" r:id="rId44" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Paul Kamau - Task sheet.xlsx
+++ b/Paul Kamau - Task sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="5925" windowHeight="5100"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="5925" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -446,9 +446,6 @@
 event page: http://www.primeoncology.org/sanantoniobc2014.aspx</t>
   </si>
   <si>
-    <t>Campaign Monitor template: https://primeoncology.createsend.com/reports/campaignReportDetail.aspx?ID=CABD4AFE180D927E</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video Encoding </t>
   </si>
   <si>
@@ -518,6 +515,33 @@
   </si>
   <si>
     <t>http://primepresentations.s3.amazonaws.com/2014/gbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESMO VJC EBC </t>
+  </si>
+  <si>
+    <t>web content</t>
+  </si>
+  <si>
+    <t>Campaign Monitor</t>
+  </si>
+  <si>
+    <t>http://www.primeoncology.org/2014vjc_ebc_madrid</t>
+  </si>
+  <si>
+    <t>https://primeoncology.createsend.com/createSend/snapshot.aspx?cID=FB2E4B12EA51AE5E</t>
+  </si>
+  <si>
+    <t>https://primeoncology.createsend.com/createSend/snapshot.aspx?cID=71CC1D46E94DCED2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Moffitt  </t>
+  </si>
+  <si>
+    <t>http://www.primeoncology.org/immuno-oncology_tampa_webcast</t>
+  </si>
+  <si>
+    <t>campaign monitor</t>
   </si>
 </sst>
 </file>
@@ -718,7 +742,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -849,6 +873,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -2588,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3245,7 @@
         <v>73</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.25">
@@ -3241,8 +3266,8 @@
       <c r="C94" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>83</v>
+      <c r="E94" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,21 +3282,21 @@
         <v>41961</v>
       </c>
       <c r="B98" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="E98" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C99" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3292,87 +3317,146 @@
         <v>12</v>
       </c>
       <c r="C103" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C104" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D105" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-    </row>
-    <row r="108" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+    </row>
+    <row r="109" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
         <v>41963</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B109" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D108" s="11" t="s">
+      <c r="C109" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D110" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E110" s="2" t="s">
+    </row>
+    <row r="111" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="D111" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D111" s="11" t="s">
+      <c r="E112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="1" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>407209</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="38" t="s">
         <v>105</v>
       </c>
+      <c r="D116" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A114:E114"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -3393,18 +3477,22 @@
     <hyperlink ref="E99" r:id="rId16"/>
     <hyperlink ref="E103" r:id="rId17"/>
     <hyperlink ref="E105" r:id="rId18"/>
-    <hyperlink ref="E111" r:id="rId19"/>
+    <hyperlink ref="E112" r:id="rId19"/>
+    <hyperlink ref="E117" r:id="rId20"/>
+    <hyperlink ref="E116" r:id="rId21"/>
+    <hyperlink ref="E94" r:id="rId22"/>
+    <hyperlink ref="E119" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId20"/>
-  <drawing r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId24"/>
+  <drawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId23" name="Check Box 1">
+            <control shapeId="1025" r:id="rId27" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3426,7 +3514,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId24" name="Check Box 5">
+            <control shapeId="1029" r:id="rId28" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3448,7 +3536,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId25" name="Check Box 6">
+            <control shapeId="1030" r:id="rId29" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3470,7 +3558,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId26" name="Check Box 8">
+            <control shapeId="1032" r:id="rId30" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3492,7 +3580,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId27" name="Check Box 13">
+            <control shapeId="1037" r:id="rId31" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3514,7 +3602,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId28" name="Check Box 15">
+            <control shapeId="1039" r:id="rId32" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3536,7 +3624,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId29" name="Check Box 17">
+            <control shapeId="1041" r:id="rId33" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3558,7 +3646,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId30" name="Check Box 18">
+            <control shapeId="1042" r:id="rId34" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3580,7 +3668,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId31" name="Check Box 19">
+            <control shapeId="1043" r:id="rId35" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3602,7 +3690,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId32" name="Check Box 20">
+            <control shapeId="1044" r:id="rId36" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3624,7 +3712,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId33" name="Check Box 24">
+            <control shapeId="1048" r:id="rId37" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3646,7 +3734,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId34" name="Check Box 26">
+            <control shapeId="1050" r:id="rId38" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3668,7 +3756,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId35" name="Check Box 31">
+            <control shapeId="1055" r:id="rId39" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3690,7 +3778,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId36" name="Check Box 32">
+            <control shapeId="1056" r:id="rId40" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3712,7 +3800,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId37" name="Check Box 33">
+            <control shapeId="1057" r:id="rId41" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3734,7 +3822,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId38" name="Check Box 41">
+            <control shapeId="1065" r:id="rId42" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3756,7 +3844,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId39" name="Check Box 42">
+            <control shapeId="1066" r:id="rId43" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3778,7 +3866,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId40" name="Check Box 43">
+            <control shapeId="1067" r:id="rId44" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3800,7 +3888,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId41" name="Check Box 44">
+            <control shapeId="1068" r:id="rId45" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3822,7 +3910,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId42" name="Check Box 48">
+            <control shapeId="1072" r:id="rId46" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3844,7 +3932,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId43" name="Check Box 50">
+            <control shapeId="1074" r:id="rId47" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3866,7 +3954,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId44" name="Check Box 51">
+            <control shapeId="1075" r:id="rId48" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/Paul Kamau - Task sheet.xlsx
+++ b/Paul Kamau - Task sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>campaign monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert Review ALL </t>
+  </si>
+  <si>
+    <t>http://www.primeoncology.org/online_education/heme/2014/2014expertreviewall.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://primeoncology.createsend.com/createSend/snapshot.aspx?cID=323EAFD48DA2DDFB </t>
   </si>
 </sst>
 </file>
@@ -867,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -2613,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
@@ -2630,13 +2639,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -3303,11 +3312,11 @@
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
+      <c r="A101" s="44"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
@@ -3350,11 +3359,11 @@
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="109" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
@@ -3398,15 +3407,15 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
-        <v>407209</v>
+        <v>41967</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>75</v>
@@ -3442,7 +3451,7 @@
       <c r="D119" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="42" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3451,12 +3460,45 @@
         <v>113</v>
       </c>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>41969</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E123" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A107:E107"/>
     <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A121:E121"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
@@ -3482,17 +3524,19 @@
     <hyperlink ref="E116" r:id="rId21"/>
     <hyperlink ref="E94" r:id="rId22"/>
     <hyperlink ref="E119" r:id="rId23"/>
+    <hyperlink ref="E123" r:id="rId24"/>
+    <hyperlink ref="E124" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId24"/>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId26"/>
+  <drawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId27" name="Check Box 1">
+            <control shapeId="1025" r:id="rId29" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3514,7 +3558,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId28" name="Check Box 5">
+            <control shapeId="1029" r:id="rId30" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3536,7 +3580,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId29" name="Check Box 6">
+            <control shapeId="1030" r:id="rId31" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3558,7 +3602,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId30" name="Check Box 8">
+            <control shapeId="1032" r:id="rId32" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3580,7 +3624,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId31" name="Check Box 13">
+            <control shapeId="1037" r:id="rId33" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3602,7 +3646,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId32" name="Check Box 15">
+            <control shapeId="1039" r:id="rId34" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3624,7 +3668,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId33" name="Check Box 17">
+            <control shapeId="1041" r:id="rId35" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3646,7 +3690,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId34" name="Check Box 18">
+            <control shapeId="1042" r:id="rId36" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3668,7 +3712,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId35" name="Check Box 19">
+            <control shapeId="1043" r:id="rId37" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3690,7 +3734,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId36" name="Check Box 20">
+            <control shapeId="1044" r:id="rId38" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3712,7 +3756,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId37" name="Check Box 24">
+            <control shapeId="1048" r:id="rId39" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3734,7 +3778,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId38" name="Check Box 26">
+            <control shapeId="1050" r:id="rId40" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3756,7 +3800,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId39" name="Check Box 31">
+            <control shapeId="1055" r:id="rId41" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3778,7 +3822,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId40" name="Check Box 32">
+            <control shapeId="1056" r:id="rId42" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3800,7 +3844,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId41" name="Check Box 33">
+            <control shapeId="1057" r:id="rId43" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3822,7 +3866,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId42" name="Check Box 41">
+            <control shapeId="1065" r:id="rId44" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3844,7 +3888,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId43" name="Check Box 42">
+            <control shapeId="1066" r:id="rId45" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3866,7 +3910,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId44" name="Check Box 43">
+            <control shapeId="1067" r:id="rId46" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3888,7 +3932,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId45" name="Check Box 44">
+            <control shapeId="1068" r:id="rId47" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3910,7 +3954,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId46" name="Check Box 48">
+            <control shapeId="1072" r:id="rId48" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3932,7 +3976,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId47" name="Check Box 50">
+            <control shapeId="1074" r:id="rId49" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3954,7 +3998,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId48" name="Check Box 51">
+            <control shapeId="1075" r:id="rId50" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
